--- a/data/harvest_by_year/harvest_by_year_clean/2013-stats-recolte.xlsx
+++ b/data/harvest_by_year/harvest_by_year_clean/2013-stats-recolte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,6176 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>O1 AIN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>755</v>
+      </c>
+      <c r="C2" t="n">
+        <v>803.3812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>544.5911</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>16.4401</v>
+      </c>
+      <c r="G2" t="n">
+        <v>242.35</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11081.07</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2799.54</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11286.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>433.12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3856.58</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2549.92</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6142.02</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>15370.77</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5450.96</v>
+      </c>
+      <c r="S2" t="n">
+        <v>17518.82</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>218.83</v>
+      </c>
+      <c r="V2" t="n">
+        <v>38559.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>O2 AISNE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>829</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2473.6868</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2466.927</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.7598</v>
+      </c>
+      <c r="H3" t="n">
+        <v>202515.29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>422.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>202937.99</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>16672.53</v>
+      </c>
+      <c r="V3" t="n">
+        <v>219626.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>O3 ALLIER</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>684.8664</v>
+      </c>
+      <c r="D4" t="n">
+        <v>553.0877</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>6.4649</v>
+      </c>
+      <c r="G4" t="n">
+        <v>125.3138</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4436.49</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9390.98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3150.26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>41.85</v>
+      </c>
+      <c r="L4" t="n">
+        <v>132.02</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>436.03</v>
+      </c>
+      <c r="O4" t="n">
+        <v>873.98</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1219.85</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4914.37</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10396.98</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4370.110000000001</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>350.97</v>
+      </c>
+      <c r="V4" t="n">
+        <v>20032.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04 ALPES-HTE-PR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>114</v>
+      </c>
+      <c r="C5" t="n">
+        <v>710.924</v>
+      </c>
+      <c r="D5" t="n">
+        <v>266.7967</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="G5" t="n">
+        <v>105.7373</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1576.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3767.84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7057.84</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2715.61</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4518.04</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10831.34</v>
+      </c>
+      <c r="N5" t="n">
+        <v>424.38</v>
+      </c>
+      <c r="O5" t="n">
+        <v>921.95</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3430.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4716.87</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9207.830000000002</v>
+      </c>
+      <c r="S5" t="n">
+        <v>21319.68</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>1021.61</v>
+      </c>
+      <c r="V5" t="n">
+        <v>36265.99000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>O5 ALPES-HAUTES</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>153</v>
+      </c>
+      <c r="C6" t="n">
+        <v>143.904</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>102.4518</v>
+      </c>
+      <c r="G6" t="n">
+        <v>41.4522</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1196.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2022.61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1611.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>61.72</v>
+      </c>
+      <c r="O6" t="n">
+        <v>329.77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1258.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2352.38</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1621.12</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="n">
+        <v>223.25</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5455.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>O6 ALPES-Mmes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>106</v>
+      </c>
+      <c r="C7" t="n">
+        <v>125.3108</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.5587</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>25.3821</v>
+      </c>
+      <c r="G7" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="H7" t="n">
+        <v>425.83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>191.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="O7" t="n">
+        <v>196.08</v>
+      </c>
+      <c r="P7" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>607.0099999999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>821.2800000000001</v>
+      </c>
+      <c r="S7" t="n">
+        <v>424.8</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1879.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>O7 ARDECHE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2147</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10404.818</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2692.549</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>7094.959</v>
+      </c>
+      <c r="G8" t="n">
+        <v>617.3099999999999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6519.52</v>
+      </c>
+      <c r="I8" t="n">
+        <v>84371.03</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5963.78</v>
+      </c>
+      <c r="K8" t="n">
+        <v>82186.03</v>
+      </c>
+      <c r="L8" t="n">
+        <v>279270.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>25664.96</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12904.69</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9791.709999999999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>825.35</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>101610.24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>373433.36</v>
+      </c>
+      <c r="S8" t="n">
+        <v>32454.09</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>10398.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>517896.3100000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>O8 ARDENNES</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5391</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5391</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>O9 ARIEGE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>160.9046</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>21.7567</v>
+      </c>
+      <c r="G10" t="n">
+        <v>139.1479</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>544.7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>125</v>
+      </c>
+      <c r="N10" t="n">
+        <v>78</v>
+      </c>
+      <c r="O10" t="n">
+        <v>348.98</v>
+      </c>
+      <c r="P10" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>893.6800000000001</v>
+      </c>
+      <c r="S10" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1251.42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10 AUBE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2747</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7088.3979</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7065</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.3979</v>
+      </c>
+      <c r="H11" t="n">
+        <v>535565.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>427.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>189.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>535838.2000000001</v>
+      </c>
+      <c r="R11" t="n">
+        <v>427.33</v>
+      </c>
+      <c r="S11" t="n">
+        <v>189.52</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>17774.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>554229.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11 AUDE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5916</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65613.81</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19107.81</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>41229.22</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5276.78</v>
+      </c>
+      <c r="H12" t="n">
+        <v>118173.96</v>
+      </c>
+      <c r="I12" t="n">
+        <v>566988.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>64518.93</v>
+      </c>
+      <c r="K12" t="n">
+        <v>549916.64</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1931402.82</v>
+      </c>
+      <c r="M12" t="n">
+        <v>225942.22</v>
+      </c>
+      <c r="N12" t="n">
+        <v>73258</v>
+      </c>
+      <c r="O12" t="n">
+        <v>265363</v>
+      </c>
+      <c r="P12" t="n">
+        <v>36665.96</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>741348.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2763754.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>327127.11</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>60190.49</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3892420.62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12 AVEYRON</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>936</v>
+      </c>
+      <c r="C13" t="n">
+        <v>555.5081</v>
+      </c>
+      <c r="D13" t="n">
+        <v>277.987</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>37.5244</v>
+      </c>
+      <c r="G13" t="n">
+        <v>239.9967</v>
+      </c>
+      <c r="H13" t="n">
+        <v>244.16</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6525.31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1710.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>95.36</v>
+      </c>
+      <c r="L13" t="n">
+        <v>590.71</v>
+      </c>
+      <c r="M13" t="n">
+        <v>156.65</v>
+      </c>
+      <c r="N13" t="n">
+        <v>153.38</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3593.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>147.98</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10709.2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2015.13</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>205.73</v>
+      </c>
+      <c r="V13" t="n">
+        <v>13422.96</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13 BOUCHES-DU-R</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10000.7014</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6548.534</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>3199.959</v>
+      </c>
+      <c r="G14" t="n">
+        <v>252.2084</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16696.14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29535.42</v>
+      </c>
+      <c r="J14" t="n">
+        <v>241894.15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11578.29</v>
+      </c>
+      <c r="L14" t="n">
+        <v>68855.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>112283.44</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4365.55</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3052.77</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3086.82</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>32639.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>101443.69</v>
+      </c>
+      <c r="S14" t="n">
+        <v>357264.41</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>16483.54</v>
+      </c>
+      <c r="V14" t="n">
+        <v>507831.6199999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 CALVADOS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.8055</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>4.8055</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>132.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>133.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15 CANTAL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.8399</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.6058</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>6.4425</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.7916</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>34</v>
+      </c>
+      <c r="J16" t="n">
+        <v>20</v>
+      </c>
+      <c r="K16" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="L16" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>46.42</v>
+      </c>
+      <c r="R16" t="n">
+        <v>142.63</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="V16" t="n">
+        <v>218.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16 CHARENTE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3627</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39058.0346</v>
+      </c>
+      <c r="D17" t="n">
+        <v>114.84</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37635.3007</v>
+      </c>
+      <c r="F17" t="n">
+        <v>468.0854</v>
+      </c>
+      <c r="G17" t="n">
+        <v>839.8085</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2811.72</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3269.44</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5681.64</v>
+      </c>
+      <c r="L17" t="n">
+        <v>14013.22</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6217.27</v>
+      </c>
+      <c r="O17" t="n">
+        <v>22257.81</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14710.63</v>
+      </c>
+      <c r="R17" t="n">
+        <v>36271.03</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3273.79</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3848052.16</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4948.22</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3907255.830000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17 CHARENTE-MAR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4634</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38705.4031</v>
+      </c>
+      <c r="D18" t="n">
+        <v>831</v>
+      </c>
+      <c r="E18" t="n">
+        <v>35467.2971</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1174.765</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1232.341</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26111.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>28055.96</v>
+      </c>
+      <c r="K18" t="n">
+        <v>23113.84</v>
+      </c>
+      <c r="L18" t="n">
+        <v>35398.34</v>
+      </c>
+      <c r="M18" t="n">
+        <v>55</v>
+      </c>
+      <c r="N18" t="n">
+        <v>22809.31</v>
+      </c>
+      <c r="O18" t="n">
+        <v>24175.56</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>72034.89999999999</v>
+      </c>
+      <c r="R18" t="n">
+        <v>59573.89999999999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>28112.06</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3812360.77</v>
+      </c>
+      <c r="U18" t="n">
+        <v>7768.24</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3979849.87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18 CHER</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>752</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4114.2136</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3965.17</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>43.9566</v>
+      </c>
+      <c r="G19" t="n">
+        <v>105.087</v>
+      </c>
+      <c r="H19" t="n">
+        <v>178390.45</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29410.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17095.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1080.41</v>
+      </c>
+      <c r="L19" t="n">
+        <v>440.15</v>
+      </c>
+      <c r="M19" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>527.28</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1453.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>381.35</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>179998.14</v>
+      </c>
+      <c r="R19" t="n">
+        <v>31304.3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>17848.25</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>362.42</v>
+      </c>
+      <c r="V19" t="n">
+        <v>229513.11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19 CORREZE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>650</v>
+      </c>
+      <c r="C20" t="n">
+        <v>178.6284</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>61.4079</v>
+      </c>
+      <c r="G20" t="n">
+        <v>117.2205</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>303.92</v>
+      </c>
+      <c r="L20" t="n">
+        <v>902.77</v>
+      </c>
+      <c r="M20" t="n">
+        <v>744.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1540.82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>338.52</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2443.59</v>
+      </c>
+      <c r="S20" t="n">
+        <v>748.3</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3530.41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2A CORSE SUD</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>845.0312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>706.0708</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>49.7952</v>
+      </c>
+      <c r="G21" t="n">
+        <v>89.1652</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4143.33</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11661.47</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10464.02</v>
+      </c>
+      <c r="K21" t="n">
+        <v>496.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2155</v>
+      </c>
+      <c r="N21" t="n">
+        <v>350.13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2168.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1229.13</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4990.26</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15009.76</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13848.15</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>736.9299999999999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>34585.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2B CORSE(HTE)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>305</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4978.149899999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2047.57</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2651.585</v>
+      </c>
+      <c r="G22" t="n">
+        <v>278.9949</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11897.12</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22370.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50066.49</v>
+      </c>
+      <c r="K22" t="n">
+        <v>21347.24</v>
+      </c>
+      <c r="L22" t="n">
+        <v>45178.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>169541.78</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10116.96</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2132.31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7502.01</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>43361.32</v>
+      </c>
+      <c r="R22" t="n">
+        <v>69681.31</v>
+      </c>
+      <c r="S22" t="n">
+        <v>227110.28</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>7507.16</v>
+      </c>
+      <c r="V22" t="n">
+        <v>347660.07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21 COTE D'OR</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9407.014499999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9290.07</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>39.779</v>
+      </c>
+      <c r="G23" t="n">
+        <v>77.16549999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>135441.45</v>
+      </c>
+      <c r="I23" t="n">
+        <v>212542.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2106.21</v>
+      </c>
+      <c r="K23" t="n">
+        <v>589.3200000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>226.79</v>
+      </c>
+      <c r="M23" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="N23" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="O23" t="n">
+        <v>774.41</v>
+      </c>
+      <c r="P23" t="n">
+        <v>105.24</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>136396.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>213543.85</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2239.29</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>4211.49</v>
+      </c>
+      <c r="V23" t="n">
+        <v>356391.33</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22 COTES-D'ARMOR</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23 CREUSE</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24 DORDOGNE</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2310</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11898.7678</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10904.03</v>
+      </c>
+      <c r="E26" t="n">
+        <v>21.2909</v>
+      </c>
+      <c r="F26" t="n">
+        <v>238.7739</v>
+      </c>
+      <c r="G26" t="n">
+        <v>734.673</v>
+      </c>
+      <c r="H26" t="n">
+        <v>163520.66</v>
+      </c>
+      <c r="I26" t="n">
+        <v>155010.79</v>
+      </c>
+      <c r="J26" t="n">
+        <v>39898.74</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2516.09</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3756.02</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1532.29</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4551.67</v>
+      </c>
+      <c r="O26" t="n">
+        <v>7985.47</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1731.81</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>170588.42</v>
+      </c>
+      <c r="R26" t="n">
+        <v>166752.28</v>
+      </c>
+      <c r="S26" t="n">
+        <v>43162.84</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2150</v>
+      </c>
+      <c r="U26" t="n">
+        <v>7158.69</v>
+      </c>
+      <c r="V26" t="n">
+        <v>389812.23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25 DOUBS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>161</v>
+      </c>
+      <c r="C27" t="n">
+        <v>35.6119</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>17.0885</v>
+      </c>
+      <c r="G27" t="n">
+        <v>18.5234</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>311.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>36</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>190.86</v>
+      </c>
+      <c r="O27" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>502.46</v>
+      </c>
+      <c r="R27" t="n">
+        <v>235.3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" t="n">
+        <v>768.46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26 DROME</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16263.0269</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13733.96</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>2049.055</v>
+      </c>
+      <c r="G28" t="n">
+        <v>480.0119</v>
+      </c>
+      <c r="H28" t="n">
+        <v>113948.82</v>
+      </c>
+      <c r="I28" t="n">
+        <v>396781.1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10747.39</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12554.46</v>
+      </c>
+      <c r="L28" t="n">
+        <v>57789.15</v>
+      </c>
+      <c r="M28" t="n">
+        <v>13197.8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>502.85</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3809.33</v>
+      </c>
+      <c r="P28" t="n">
+        <v>906.21</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>127006.13</v>
+      </c>
+      <c r="R28" t="n">
+        <v>458379.58</v>
+      </c>
+      <c r="S28" t="n">
+        <v>24851.4</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>16991.84</v>
+      </c>
+      <c r="V28" t="n">
+        <v>627228.95</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27 EURE</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28 EURE-ET-LOIR</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29 FINISTERE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30 GARD</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4264</v>
+      </c>
+      <c r="C32" t="n">
+        <v>53010.791</v>
+      </c>
+      <c r="D32" t="n">
+        <v>19396.33</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>30728.83</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2885.631</v>
+      </c>
+      <c r="H32" t="n">
+        <v>48709.26</v>
+      </c>
+      <c r="I32" t="n">
+        <v>617156.54</v>
+      </c>
+      <c r="J32" t="n">
+        <v>143189.27</v>
+      </c>
+      <c r="K32" t="n">
+        <v>353814.14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1243350.73</v>
+      </c>
+      <c r="M32" t="n">
+        <v>506411.64</v>
+      </c>
+      <c r="N32" t="n">
+        <v>27146.55</v>
+      </c>
+      <c r="O32" t="n">
+        <v>146049.31</v>
+      </c>
+      <c r="P32" t="n">
+        <v>36542.14</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>429669.95</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2006556.58</v>
+      </c>
+      <c r="S32" t="n">
+        <v>686143.05</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>75272.75999999999</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3197642.34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31 GARONNE(HTE)</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>469</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1595.9924</v>
+      </c>
+      <c r="D33" t="n">
+        <v>888.84</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>526.9498</v>
+      </c>
+      <c r="G33" t="n">
+        <v>180.2026</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>16839.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12206.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>438.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>11645.98</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10649.74</v>
+      </c>
+      <c r="N33" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3382.97</v>
+      </c>
+      <c r="P33" t="n">
+        <v>254.27</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>632</v>
+      </c>
+      <c r="R33" t="n">
+        <v>31868.45</v>
+      </c>
+      <c r="S33" t="n">
+        <v>23110.51</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>1339.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>56950.46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32 GERS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1597</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18277.902</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1673.1777</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1582.2193</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13141.19</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1881.315</v>
+      </c>
+      <c r="H34" t="n">
+        <v>14586.37</v>
+      </c>
+      <c r="I34" t="n">
+        <v>38230.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14039</v>
+      </c>
+      <c r="K34" t="n">
+        <v>818836.28</v>
+      </c>
+      <c r="L34" t="n">
+        <v>61855.35</v>
+      </c>
+      <c r="M34" t="n">
+        <v>62345.38</v>
+      </c>
+      <c r="N34" t="n">
+        <v>124568.15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>11260.81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6641.46</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>957990.8</v>
+      </c>
+      <c r="R34" t="n">
+        <v>111346.36</v>
+      </c>
+      <c r="S34" t="n">
+        <v>83025.84000000001</v>
+      </c>
+      <c r="T34" t="n">
+        <v>117981.12</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12925.34</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1283269.46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33 GIRONDE</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7506</v>
+      </c>
+      <c r="C35" t="n">
+        <v>115415.9561</v>
+      </c>
+      <c r="D35" t="n">
+        <v>113724.9</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>105.9791</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1585.077</v>
+      </c>
+      <c r="H35" t="n">
+        <v>503169.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3139415.51</v>
+      </c>
+      <c r="J35" t="n">
+        <v>211873.77</v>
+      </c>
+      <c r="K35" t="n">
+        <v>831.6799999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1315.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2346.3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8883.940000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>22092.74</v>
+      </c>
+      <c r="P35" t="n">
+        <v>14041.76</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>512884.82</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3162823.35</v>
+      </c>
+      <c r="S35" t="n">
+        <v>228261.83</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>60691.48</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3964661.48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34 HERAULT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9520</v>
+      </c>
+      <c r="C36" t="n">
+        <v>80917.738</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15054.15</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>57463.81</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8399.778</v>
+      </c>
+      <c r="H36" t="n">
+        <v>119480.67</v>
+      </c>
+      <c r="I36" t="n">
+        <v>370876.39</v>
+      </c>
+      <c r="J36" t="n">
+        <v>87254.88</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1009724.94</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2647122.24</v>
+      </c>
+      <c r="M36" t="n">
+        <v>530276.83</v>
+      </c>
+      <c r="N36" t="n">
+        <v>148946.93</v>
+      </c>
+      <c r="O36" t="n">
+        <v>568315.7</v>
+      </c>
+      <c r="P36" t="n">
+        <v>110900.96</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1278152.54</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3586314.33</v>
+      </c>
+      <c r="S36" t="n">
+        <v>728432.6699999999</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>123191.13</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5716090.67</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35 ILLE-ET-VIL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36 INDRE</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>721</v>
+      </c>
+      <c r="C38" t="n">
+        <v>556.9818</v>
+      </c>
+      <c r="D38" t="n">
+        <v>289.3715</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>79.9675</v>
+      </c>
+      <c r="G38" t="n">
+        <v>187.6428</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8201.32</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4610.79</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2343.43</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2997.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2332.95</v>
+      </c>
+      <c r="M38" t="n">
+        <v>182.45</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1470.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>3568.94</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1307.56</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12669.12</v>
+      </c>
+      <c r="R38" t="n">
+        <v>10512.68</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3833.44</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>383.77</v>
+      </c>
+      <c r="V38" t="n">
+        <v>27399.01</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37 INDRE-ET-L</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9936.6139</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9193.596</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>115.8025</v>
+      </c>
+      <c r="G39" t="n">
+        <v>627.2154</v>
+      </c>
+      <c r="H39" t="n">
+        <v>145392.08</v>
+      </c>
+      <c r="I39" t="n">
+        <v>184868.11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>43474.97</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1189.04</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4138.26</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1041.19</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10698.72</v>
+      </c>
+      <c r="O39" t="n">
+        <v>8488.030000000001</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10432.32</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>157279.84</v>
+      </c>
+      <c r="R39" t="n">
+        <v>197494.4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>54948.48</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>8818.34</v>
+      </c>
+      <c r="V39" t="n">
+        <v>418541.06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38 ISERE</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2321</v>
+      </c>
+      <c r="C40" t="n">
+        <v>609.9805</v>
+      </c>
+      <c r="D40" t="n">
+        <v>173.6635</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>127.7186</v>
+      </c>
+      <c r="G40" t="n">
+        <v>308.5984</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8188.88</v>
+      </c>
+      <c r="I40" t="n">
+        <v>419.46</v>
+      </c>
+      <c r="J40" t="n">
+        <v>182.55</v>
+      </c>
+      <c r="K40" t="n">
+        <v>646.22</v>
+      </c>
+      <c r="L40" t="n">
+        <v>868.3200000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>167.83</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1414.37</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3650.22</v>
+      </c>
+      <c r="P40" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>10249.47</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4938</v>
+      </c>
+      <c r="S40" t="n">
+        <v>609.28</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>108.49</v>
+      </c>
+      <c r="V40" t="n">
+        <v>15905.24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39 JURA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2105.0896</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1924.857</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="G41" t="n">
+        <v>168.1106</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39566.97</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11502.01</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2870.7</v>
+      </c>
+      <c r="K41" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>35</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1907.04</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1398.33</v>
+      </c>
+      <c r="P41" t="n">
+        <v>181.66</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>41607.21</v>
+      </c>
+      <c r="R41" t="n">
+        <v>12935.34</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3052.36</v>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="n">
+        <v>692.66</v>
+      </c>
+      <c r="V41" t="n">
+        <v>58287.57000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40 LANDES</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>518</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1671.3135</v>
+      </c>
+      <c r="D42" t="n">
+        <v>331.0336</v>
+      </c>
+      <c r="E42" t="n">
+        <v>395.0098</v>
+      </c>
+      <c r="F42" t="n">
+        <v>707.2849</v>
+      </c>
+      <c r="G42" t="n">
+        <v>237.9852</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2339.09</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2663.79</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5811.22</v>
+      </c>
+      <c r="K42" t="n">
+        <v>32609.52</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3223.71</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6281.92</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6393.51</v>
+      </c>
+      <c r="O42" t="n">
+        <v>994.45</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1421.34</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>41342.12</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6881.95</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13514.48</v>
+      </c>
+      <c r="T42" t="n">
+        <v>27279.18</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1700.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>90717.93000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41 LOIR-ET-CHER</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>736</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6552.4374</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4908.815</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>901.0195</v>
+      </c>
+      <c r="G43" t="n">
+        <v>742.6029</v>
+      </c>
+      <c r="H43" t="n">
+        <v>147055.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>53541.43</v>
+      </c>
+      <c r="J43" t="n">
+        <v>47142.86</v>
+      </c>
+      <c r="K43" t="n">
+        <v>35861.15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>16274.51</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5475.14</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11236.98</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9529.200000000001</v>
+      </c>
+      <c r="P43" t="n">
+        <v>12770.91</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>194153.23</v>
+      </c>
+      <c r="R43" t="n">
+        <v>79345.14</v>
+      </c>
+      <c r="S43" t="n">
+        <v>65388.91</v>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>6201.76</v>
+      </c>
+      <c r="V43" t="n">
+        <v>345089.04</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42 LOIRE</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>507</v>
+      </c>
+      <c r="C44" t="n">
+        <v>923.8655</v>
+      </c>
+      <c r="D44" t="n">
+        <v>600.0481</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>154.928</v>
+      </c>
+      <c r="G44" t="n">
+        <v>168.8894</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4329.86</v>
+      </c>
+      <c r="I44" t="n">
+        <v>13198.07</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1452.27</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1550.94</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1818.56</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1085.67</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1098.04</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2622.39</v>
+      </c>
+      <c r="P44" t="n">
+        <v>792</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>6978.839999999999</v>
+      </c>
+      <c r="R44" t="n">
+        <v>17639.02</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3329.94</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>358.07</v>
+      </c>
+      <c r="V44" t="n">
+        <v>28305.87</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43 LOIRE(HAUTE)</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>167</v>
+      </c>
+      <c r="C45" t="n">
+        <v>37.1248</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>37.1248</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>427.73</v>
+      </c>
+      <c r="P45" t="n">
+        <v>58.45</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="R45" t="n">
+        <v>427.73</v>
+      </c>
+      <c r="S45" t="n">
+        <v>58.45</v>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>514.88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44 LOIRE ATLAN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1396</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11967.329</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9231.664000000001</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>1416.812</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1318.853</v>
+      </c>
+      <c r="H46" t="n">
+        <v>447548.73</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1791.81</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1605.28</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46686.24</v>
+      </c>
+      <c r="L46" t="n">
+        <v>20203.75</v>
+      </c>
+      <c r="M46" t="n">
+        <v>28097.05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>40555.8</v>
+      </c>
+      <c r="O46" t="n">
+        <v>15183.91</v>
+      </c>
+      <c r="P46" t="n">
+        <v>29637.33</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>534790.77</v>
+      </c>
+      <c r="R46" t="n">
+        <v>37179.47</v>
+      </c>
+      <c r="S46" t="n">
+        <v>59339.66</v>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>11689.29</v>
+      </c>
+      <c r="V46" t="n">
+        <v>642999.1900000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45 LOIRET</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>103</v>
+      </c>
+      <c r="C47" t="n">
+        <v>203.3635</v>
+      </c>
+      <c r="D47" t="n">
+        <v>162.0439</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>18.5825</v>
+      </c>
+      <c r="G47" t="n">
+        <v>22.7371</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1791.33</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1856.4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>750.54</v>
+      </c>
+      <c r="K47" t="n">
+        <v>112.67</v>
+      </c>
+      <c r="L47" t="n">
+        <v>92.05</v>
+      </c>
+      <c r="M47" t="n">
+        <v>353.97</v>
+      </c>
+      <c r="N47" t="n">
+        <v>109.45</v>
+      </c>
+      <c r="O47" t="n">
+        <v>258.05</v>
+      </c>
+      <c r="P47" t="n">
+        <v>344.14</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2013.45</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2206.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1448.65</v>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>102.87</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5771.47</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46 LOT</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1347</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5055.2585</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3490.946</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>953.0342000000001</v>
+      </c>
+      <c r="G48" t="n">
+        <v>611.2782999999999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>98693.45</v>
+      </c>
+      <c r="J48" t="n">
+        <v>732.78</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2125.09</v>
+      </c>
+      <c r="L48" t="n">
+        <v>17781.7</v>
+      </c>
+      <c r="M48" t="n">
+        <v>12134.37</v>
+      </c>
+      <c r="N48" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9964.030000000001</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2087.2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2254.69</v>
+      </c>
+      <c r="R48" t="n">
+        <v>126439.18</v>
+      </c>
+      <c r="S48" t="n">
+        <v>14954.35</v>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>2802.41</v>
+      </c>
+      <c r="V48" t="n">
+        <v>146450.63</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47 LOT-ET-GAR</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6241.4281</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4602.673</v>
+      </c>
+      <c r="E49" t="n">
+        <v>24.988</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1001.943</v>
+      </c>
+      <c r="G49" t="n">
+        <v>611.8241</v>
+      </c>
+      <c r="H49" t="n">
+        <v>30987.18</v>
+      </c>
+      <c r="I49" t="n">
+        <v>104674.59</v>
+      </c>
+      <c r="J49" t="n">
+        <v>53933.93</v>
+      </c>
+      <c r="K49" t="n">
+        <v>42441.13</v>
+      </c>
+      <c r="L49" t="n">
+        <v>12026.18</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8481.82</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6286.79</v>
+      </c>
+      <c r="O49" t="n">
+        <v>12525.16</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1574.17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>79715.09999999999</v>
+      </c>
+      <c r="R49" t="n">
+        <v>129225.93</v>
+      </c>
+      <c r="S49" t="n">
+        <v>63989.92</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2182.04</v>
+      </c>
+      <c r="U49" t="n">
+        <v>4318.23</v>
+      </c>
+      <c r="V49" t="n">
+        <v>279431.2199999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48 LOZERE</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="n">
+        <v>11.1293</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>8.9817</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.1476</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="L50" t="n">
+        <v>128.38</v>
+      </c>
+      <c r="M50" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="N50" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="O50" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>75.58</v>
+      </c>
+      <c r="R50" t="n">
+        <v>348.88</v>
+      </c>
+      <c r="S50" t="n">
+        <v>32.34</v>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>461.1999999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49 MAINE-ET-L</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C51" t="n">
+        <v>19539.883</v>
+      </c>
+      <c r="D51" t="n">
+        <v>17473.78</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1016.215</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1049.888</v>
+      </c>
+      <c r="H51" t="n">
+        <v>271367.24</v>
+      </c>
+      <c r="I51" t="n">
+        <v>139222.24</v>
+      </c>
+      <c r="J51" t="n">
+        <v>451194.97</v>
+      </c>
+      <c r="K51" t="n">
+        <v>41628.79</v>
+      </c>
+      <c r="L51" t="n">
+        <v>13417.84</v>
+      </c>
+      <c r="M51" t="n">
+        <v>9224.549999999999</v>
+      </c>
+      <c r="N51" t="n">
+        <v>21355.81</v>
+      </c>
+      <c r="O51" t="n">
+        <v>13403.62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>14723.75</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>334351.84</v>
+      </c>
+      <c r="R51" t="n">
+        <v>166043.7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>475143.27</v>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>18893.45</v>
+      </c>
+      <c r="V51" t="n">
+        <v>994432.2599999998</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50 MANCHE</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51 MARNE</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>12411</v>
+      </c>
+      <c r="C53" t="n">
+        <v>23944.7843</v>
+      </c>
+      <c r="D53" t="n">
+        <v>23940</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.7843</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1833769</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="O53" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="P53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1833843.87</v>
+      </c>
+      <c r="R53" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="S53" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>209438</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2043340.97</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52 MARNE(HAUTE)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>232</v>
+      </c>
+      <c r="C54" t="n">
+        <v>104.8848</v>
+      </c>
+      <c r="D54" t="n">
+        <v>42.0171</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>25.8739</v>
+      </c>
+      <c r="G54" t="n">
+        <v>36.9938</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3205.27</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="L54" t="n">
+        <v>538.9</v>
+      </c>
+      <c r="M54" t="n">
+        <v>94.02</v>
+      </c>
+      <c r="N54" t="n">
+        <v>603.1799999999999</v>
+      </c>
+      <c r="O54" t="n">
+        <v>554.26</v>
+      </c>
+      <c r="P54" t="n">
+        <v>110.15</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4201.35</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1093.16</v>
+      </c>
+      <c r="S54" t="n">
+        <v>204.17</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>298.94</v>
+      </c>
+      <c r="V54" t="n">
+        <v>5797.62</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53 MAYENNE</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.6437</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.6437</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>48.75</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54 MEURTHE-&amp;-M</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>148</v>
+      </c>
+      <c r="C56" t="n">
+        <v>273.8241</v>
+      </c>
+      <c r="D56" t="n">
+        <v>66.4629</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>207.3612</v>
+      </c>
+      <c r="H56" t="n">
+        <v>613.72</v>
+      </c>
+      <c r="I56" t="n">
+        <v>434.36</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1293.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>461.83</v>
+      </c>
+      <c r="O56" t="n">
+        <v>243.45</v>
+      </c>
+      <c r="P56" t="n">
+        <v>807.35</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1075.55</v>
+      </c>
+      <c r="R56" t="n">
+        <v>677.8099999999999</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2100.85</v>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3900.51</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55 MEUSE</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>18</v>
+      </c>
+      <c r="C57" t="n">
+        <v>47.5271</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>30.5399</v>
+      </c>
+      <c r="G57" t="n">
+        <v>16.9872</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>790.5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>348.79</v>
+      </c>
+      <c r="M57" t="n">
+        <v>377.6</v>
+      </c>
+      <c r="N57" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1099.6</v>
+      </c>
+      <c r="R57" t="n">
+        <v>380.29</v>
+      </c>
+      <c r="S57" t="n">
+        <v>423.6</v>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1903.49</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56 MORBIHAN</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57 MOSELLE</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>89</v>
+      </c>
+      <c r="C59" t="n">
+        <v>69.8019</v>
+      </c>
+      <c r="D59" t="n">
+        <v>31.2966</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>38.5053</v>
+      </c>
+      <c r="H59" t="n">
+        <v>691.28</v>
+      </c>
+      <c r="I59" t="n">
+        <v>352.96</v>
+      </c>
+      <c r="J59" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>648.29</v>
+      </c>
+      <c r="O59" t="n">
+        <v>742.7</v>
+      </c>
+      <c r="P59" t="n">
+        <v>126.77</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1339.57</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1095.66</v>
+      </c>
+      <c r="S59" t="n">
+        <v>254.27</v>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2689.5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58 NIEVRE</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>383</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1666.374</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1413.359</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>199.5744</v>
+      </c>
+      <c r="G60" t="n">
+        <v>53.4406</v>
+      </c>
+      <c r="H60" t="n">
+        <v>74159.71000000001</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2035.95</v>
+      </c>
+      <c r="J60" t="n">
+        <v>704.01</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1819.15</v>
+      </c>
+      <c r="L60" t="n">
+        <v>913.8</v>
+      </c>
+      <c r="M60" t="n">
+        <v>285.95</v>
+      </c>
+      <c r="N60" t="n">
+        <v>398.29</v>
+      </c>
+      <c r="O60" t="n">
+        <v>793.75</v>
+      </c>
+      <c r="P60" t="n">
+        <v>252.15</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>76377.14999999999</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3743.5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1242.11</v>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="V60" t="n">
+        <v>81396.97</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59 NORD</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="O61" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="R61" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60 OISE</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61 ORNE</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62 PAS-DE-CAL</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63 PUY-DE-DOME</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>950</v>
+      </c>
+      <c r="C65" t="n">
+        <v>635.2219</v>
+      </c>
+      <c r="D65" t="n">
+        <v>275.4476</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>69.66589999999999</v>
+      </c>
+      <c r="G65" t="n">
+        <v>290.1084</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1051.66</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5844.66</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2536.72</v>
+      </c>
+      <c r="K65" t="n">
+        <v>445.43</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1330.85</v>
+      </c>
+      <c r="M65" t="n">
+        <v>621.25</v>
+      </c>
+      <c r="N65" t="n">
+        <v>208.33</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4031.3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>678.66</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1705.42</v>
+      </c>
+      <c r="R65" t="n">
+        <v>11206.81</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3836.63</v>
+      </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>16934.16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64 PYRENEES-AT</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>847</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2648.5212</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2255.778</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="n">
+        <v>110.1821</v>
+      </c>
+      <c r="G66" t="n">
+        <v>282.5611</v>
+      </c>
+      <c r="H66" t="n">
+        <v>40412.4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24509.86</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6599.27</v>
+      </c>
+      <c r="K66" t="n">
+        <v>321.84</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2718.26</v>
+      </c>
+      <c r="M66" t="n">
+        <v>578.0700000000001</v>
+      </c>
+      <c r="N66" t="n">
+        <v>409.62</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1568.76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>350.87</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>41143.86</v>
+      </c>
+      <c r="R66" t="n">
+        <v>28796.88</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7528.21</v>
+      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="n">
+        <v>557.3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>78026.25000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65 PYRENEES(HTE)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>540</v>
+      </c>
+      <c r="C67" t="n">
+        <v>341.2736</v>
+      </c>
+      <c r="D67" t="n">
+        <v>199.3387</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>35.0194</v>
+      </c>
+      <c r="G67" t="n">
+        <v>106.9155</v>
+      </c>
+      <c r="H67" t="n">
+        <v>852.24</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6911.836</v>
+      </c>
+      <c r="J67" t="n">
+        <v>299.24</v>
+      </c>
+      <c r="K67" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1136.02</v>
+      </c>
+      <c r="M67" t="n">
+        <v>141.47</v>
+      </c>
+      <c r="N67" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1458.43</v>
+      </c>
+      <c r="P67" t="n">
+        <v>451.4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1034.84</v>
+      </c>
+      <c r="R67" t="n">
+        <v>9506.286</v>
+      </c>
+      <c r="S67" t="n">
+        <v>892.11</v>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="n">
+        <v>95.94</v>
+      </c>
+      <c r="V67" t="n">
+        <v>11529.176</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66 PYRENEES-OR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2931</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23495.7564</v>
+      </c>
+      <c r="D68" t="n">
+        <v>16584.67</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="n">
+        <v>6150.123</v>
+      </c>
+      <c r="G68" t="n">
+        <v>760.9634</v>
+      </c>
+      <c r="H68" t="n">
+        <v>99391.52</v>
+      </c>
+      <c r="I68" t="n">
+        <v>175780.02</v>
+      </c>
+      <c r="J68" t="n">
+        <v>133951.85</v>
+      </c>
+      <c r="K68" t="n">
+        <v>92658.17</v>
+      </c>
+      <c r="L68" t="n">
+        <v>144257.71</v>
+      </c>
+      <c r="M68" t="n">
+        <v>68280.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>16964.83</v>
+      </c>
+      <c r="O68" t="n">
+        <v>14242.23</v>
+      </c>
+      <c r="P68" t="n">
+        <v>11522.21</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>209014.52</v>
+      </c>
+      <c r="R68" t="n">
+        <v>334279.96</v>
+      </c>
+      <c r="S68" t="n">
+        <v>213754.56</v>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="n">
+        <v>16777.43</v>
+      </c>
+      <c r="V68" t="n">
+        <v>773826.4700000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67 RHIN(BAS)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2386</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6641.8141</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6594.1636</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>47.6505</v>
+      </c>
+      <c r="H69" t="n">
+        <v>407596.65</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4255.36</v>
+      </c>
+      <c r="J69" t="n">
+        <v>19897.42</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2160.65</v>
+      </c>
+      <c r="O69" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="P69" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>409757.3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4366.759999999999</v>
+      </c>
+      <c r="S69" t="n">
+        <v>19967.62</v>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="n">
+        <v>7194.49</v>
+      </c>
+      <c r="V69" t="n">
+        <v>441286.17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68 RHIN (HAUT)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2584</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8965.3428</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8942.9881</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>22.3547</v>
+      </c>
+      <c r="H70" t="n">
+        <v>511514.95</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6796.87</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27494.38</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>836.5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="P70" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>512351.45</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6858.04</v>
+      </c>
+      <c r="S70" t="n">
+        <v>27537.03</v>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="n">
+        <v>6704.91</v>
+      </c>
+      <c r="V70" t="n">
+        <v>553451.4300000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69 RHONE</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C71" t="n">
+        <v>17075.4386</v>
+      </c>
+      <c r="D71" t="n">
+        <v>16734.07</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>67.71420000000001</v>
+      </c>
+      <c r="G71" t="n">
+        <v>273.6544</v>
+      </c>
+      <c r="H71" t="n">
+        <v>61901.63</v>
+      </c>
+      <c r="I71" t="n">
+        <v>644030.27</v>
+      </c>
+      <c r="J71" t="n">
+        <v>16267.06</v>
+      </c>
+      <c r="K71" t="n">
+        <v>605.04</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1194.15</v>
+      </c>
+      <c r="M71" t="n">
+        <v>331.35</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1604.52</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4783.71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3299.36</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>64111.19</v>
+      </c>
+      <c r="R71" t="n">
+        <v>650008.13</v>
+      </c>
+      <c r="S71" t="n">
+        <v>19897.77</v>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="n">
+        <v>27944.43</v>
+      </c>
+      <c r="V71" t="n">
+        <v>761961.52</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70 SAONE(HAUTE)</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>271</v>
+      </c>
+      <c r="C72" t="n">
+        <v>117.6629</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>61.0955</v>
+      </c>
+      <c r="G72" t="n">
+        <v>56.5674</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>913.4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>625</v>
+      </c>
+      <c r="M72" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="N72" t="n">
+        <v>391.64</v>
+      </c>
+      <c r="O72" t="n">
+        <v>613.1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1305.04</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1238.1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2820.74</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71 SAONE-ET-L</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2221</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13181.2985</v>
+      </c>
+      <c r="D73" t="n">
+        <v>13035.14</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>12.9278</v>
+      </c>
+      <c r="G73" t="n">
+        <v>133.2307</v>
+      </c>
+      <c r="H73" t="n">
+        <v>425639.93</v>
+      </c>
+      <c r="I73" t="n">
+        <v>196999.08</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4454.76</v>
+      </c>
+      <c r="K73" t="n">
+        <v>130.07</v>
+      </c>
+      <c r="L73" t="n">
+        <v>126.42</v>
+      </c>
+      <c r="M73" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1619.37</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1257.88</v>
+      </c>
+      <c r="P73" t="n">
+        <v>413.66</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>427389.37</v>
+      </c>
+      <c r="R73" t="n">
+        <v>198383.38</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4934.92</v>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="n">
+        <v>12154.81</v>
+      </c>
+      <c r="V73" t="n">
+        <v>642862.4800000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72 SARTHE</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>228</v>
+      </c>
+      <c r="C74" t="n">
+        <v>225.3987</v>
+      </c>
+      <c r="D74" t="n">
+        <v>137.3173</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>8.1861</v>
+      </c>
+      <c r="G74" t="n">
+        <v>79.89530000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3571.46</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1121.06</v>
+      </c>
+      <c r="J74" t="n">
+        <v>499.08</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L74" t="n">
+        <v>312.35</v>
+      </c>
+      <c r="M74" t="n">
+        <v>167</v>
+      </c>
+      <c r="N74" t="n">
+        <v>777.62</v>
+      </c>
+      <c r="O74" t="n">
+        <v>837.9400000000001</v>
+      </c>
+      <c r="P74" t="n">
+        <v>334.84</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4354.88</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2271.35</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1000.92</v>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="n">
+        <v>171.27</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7798.42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73 SAVOIE</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1901.2671</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1698.021</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>92.206</v>
+      </c>
+      <c r="G75" t="n">
+        <v>111.0401</v>
+      </c>
+      <c r="H75" t="n">
+        <v>65146.94</v>
+      </c>
+      <c r="I75" t="n">
+        <v>20573.23</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6137.85</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3111.64</v>
+      </c>
+      <c r="L75" t="n">
+        <v>712.9400000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>243</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1777.18</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2560.32</v>
+      </c>
+      <c r="P75" t="n">
+        <v>650.28</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>70035.75999999999</v>
+      </c>
+      <c r="R75" t="n">
+        <v>23846.49</v>
+      </c>
+      <c r="S75" t="n">
+        <v>7031.13</v>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="n">
+        <v>1026.66</v>
+      </c>
+      <c r="V75" t="n">
+        <v>101940.04</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74 SAVOIE(HTE)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>191</v>
+      </c>
+      <c r="C76" t="n">
+        <v>267.694</v>
+      </c>
+      <c r="D76" t="n">
+        <v>138.1969</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="n">
+        <v>10.0075</v>
+      </c>
+      <c r="G76" t="n">
+        <v>119.4896</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4604.12</v>
+      </c>
+      <c r="I76" t="n">
+        <v>624.83</v>
+      </c>
+      <c r="J76" t="n">
+        <v>155.75</v>
+      </c>
+      <c r="K76" t="n">
+        <v>263.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>20</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5250.92</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1760.88</v>
+      </c>
+      <c r="P76" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>10118.14</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2446.91</v>
+      </c>
+      <c r="S76" t="n">
+        <v>240.65</v>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="V76" t="n">
+        <v>12842.61</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75 PARIS</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>76 SEINE-MAR</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>77 SEINE ET MARNE</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="D79" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1803.37</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1803.37</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="n">
+        <v>97.67</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1901.04</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>78 YVELINES</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>79 SEVRES(DEUX)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1221</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1045.0949</v>
+      </c>
+      <c r="D81" t="n">
+        <v>652.4444999999999</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>18.1412</v>
+      </c>
+      <c r="G81" t="n">
+        <v>374.5092</v>
+      </c>
+      <c r="H81" t="n">
+        <v>12141.55</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2177.68</v>
+      </c>
+      <c r="J81" t="n">
+        <v>23846.67</v>
+      </c>
+      <c r="K81" t="n">
+        <v>483.91</v>
+      </c>
+      <c r="L81" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>80</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1683.01</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5539.32</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1009.29</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>14308.47</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7775.5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>24935.96</v>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="n">
+        <v>571.35</v>
+      </c>
+      <c r="V81" t="n">
+        <v>47591.28</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>80 SOMME</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>81 TARN</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>809</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6875.762</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3123.003</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="n">
+        <v>2534.853</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1217.906</v>
+      </c>
+      <c r="H83" t="n">
+        <v>34844.79</v>
+      </c>
+      <c r="I83" t="n">
+        <v>56291.6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>17054.98</v>
+      </c>
+      <c r="K83" t="n">
+        <v>38050.83</v>
+      </c>
+      <c r="L83" t="n">
+        <v>92926.89999999999</v>
+      </c>
+      <c r="M83" t="n">
+        <v>19653.57</v>
+      </c>
+      <c r="N83" t="n">
+        <v>16485.69</v>
+      </c>
+      <c r="O83" t="n">
+        <v>19419.06</v>
+      </c>
+      <c r="P83" t="n">
+        <v>9286.85</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>89381.31</v>
+      </c>
+      <c r="R83" t="n">
+        <v>168637.56</v>
+      </c>
+      <c r="S83" t="n">
+        <v>45995.4</v>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="n">
+        <v>5623.29</v>
+      </c>
+      <c r="V83" t="n">
+        <v>309637.56</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>82 TARN-ET-G</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>724</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1555.2033</v>
+      </c>
+      <c r="D84" t="n">
+        <v>710.6776</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="n">
+        <v>421.3048</v>
+      </c>
+      <c r="G84" t="n">
+        <v>423.2209</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>16887.74</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10498.6</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1154.13</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9023.67</v>
+      </c>
+      <c r="M84" t="n">
+        <v>8350.030000000001</v>
+      </c>
+      <c r="N84" t="n">
+        <v>436.6</v>
+      </c>
+      <c r="O84" t="n">
+        <v>9628.16</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4336.59</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1590.73</v>
+      </c>
+      <c r="R84" t="n">
+        <v>35539.57000000001</v>
+      </c>
+      <c r="S84" t="n">
+        <v>23185.22</v>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="n">
+        <v>1113.98</v>
+      </c>
+      <c r="V84" t="n">
+        <v>61429.50000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>83 VAR</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3574</v>
+      </c>
+      <c r="C85" t="n">
+        <v>28088.0625</v>
+      </c>
+      <c r="D85" t="n">
+        <v>21790.04</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>5838.913</v>
+      </c>
+      <c r="G85" t="n">
+        <v>459.1095</v>
+      </c>
+      <c r="H85" t="n">
+        <v>35956.64</v>
+      </c>
+      <c r="I85" t="n">
+        <v>78340</v>
+      </c>
+      <c r="J85" t="n">
+        <v>863971.9</v>
+      </c>
+      <c r="K85" t="n">
+        <v>23379.91</v>
+      </c>
+      <c r="L85" t="n">
+        <v>57788.54</v>
+      </c>
+      <c r="M85" t="n">
+        <v>231756.01</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3281.88</v>
+      </c>
+      <c r="O85" t="n">
+        <v>6110.37</v>
+      </c>
+      <c r="P85" t="n">
+        <v>13930.16</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>62618.43</v>
+      </c>
+      <c r="R85" t="n">
+        <v>142238.91</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1109658.07</v>
+      </c>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="n">
+        <v>43909.5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1358424.91</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>84 VAUCLUSE</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>4234</v>
+      </c>
+      <c r="C86" t="n">
+        <v>46924.1772</v>
+      </c>
+      <c r="D86" t="n">
+        <v>36234.77</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="n">
+        <v>8811.026</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1878.3812</v>
+      </c>
+      <c r="H86" t="n">
+        <v>75836.58</v>
+      </c>
+      <c r="I86" t="n">
+        <v>965648.72</v>
+      </c>
+      <c r="J86" t="n">
+        <v>145675.84</v>
+      </c>
+      <c r="K86" t="n">
+        <v>66471.57000000001</v>
+      </c>
+      <c r="L86" t="n">
+        <v>181184.25</v>
+      </c>
+      <c r="M86" t="n">
+        <v>132911.35</v>
+      </c>
+      <c r="N86" t="n">
+        <v>19170.81</v>
+      </c>
+      <c r="O86" t="n">
+        <v>19905.79</v>
+      </c>
+      <c r="P86" t="n">
+        <v>16891.81</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>161478.96</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1166738.76</v>
+      </c>
+      <c r="S86" t="n">
+        <v>295479</v>
+      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="n">
+        <v>40246.07</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1663942.79</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>85 VENDEE</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3837</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1400.4049</v>
+      </c>
+      <c r="D87" t="n">
+        <v>517.5329</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>221.7973</v>
+      </c>
+      <c r="G87" t="n">
+        <v>661.0747</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7012.66</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8023.37</v>
+      </c>
+      <c r="J87" t="n">
+        <v>9568.620000000001</v>
+      </c>
+      <c r="K87" t="n">
+        <v>4086.87</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3655.42</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5395.28</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3287.05</v>
+      </c>
+      <c r="O87" t="n">
+        <v>8257.049999999999</v>
+      </c>
+      <c r="P87" t="n">
+        <v>11196.91</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>14386.58</v>
+      </c>
+      <c r="R87" t="n">
+        <v>19935.84</v>
+      </c>
+      <c r="S87" t="n">
+        <v>26160.81</v>
+      </c>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="n">
+        <v>1183.87</v>
+      </c>
+      <c r="V87" t="n">
+        <v>61667.1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>86 VIENNE</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2079</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1512.8505</v>
+      </c>
+      <c r="D88" t="n">
+        <v>524.04</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="n">
+        <v>380.9857</v>
+      </c>
+      <c r="G88" t="n">
+        <v>607.8248</v>
+      </c>
+      <c r="H88" t="n">
+        <v>15544.2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3573.63</v>
+      </c>
+      <c r="J88" t="n">
+        <v>9344.879999999999</v>
+      </c>
+      <c r="K88" t="n">
+        <v>15854.2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3431.33</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4413.16</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6648.26</v>
+      </c>
+      <c r="O88" t="n">
+        <v>8167.99</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1759.01</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>38046.66</v>
+      </c>
+      <c r="R88" t="n">
+        <v>15172.95</v>
+      </c>
+      <c r="S88" t="n">
+        <v>15517.05</v>
+      </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="n">
+        <v>535.9</v>
+      </c>
+      <c r="V88" t="n">
+        <v>69272.56</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>87 VIENNE(HTE)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>11</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.6148</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.3148</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>60</v>
+      </c>
+      <c r="M89" t="n">
+        <v>208</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>14</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>74</v>
+      </c>
+      <c r="S89" t="n">
+        <v>208</v>
+      </c>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="n">
+        <v>31</v>
+      </c>
+      <c r="V89" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>88 VOSGES</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>238</v>
+      </c>
+      <c r="C90" t="n">
+        <v>26.7909</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>26.7909</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="O90" t="n">
+        <v>649.6</v>
+      </c>
+      <c r="P90" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="R90" t="n">
+        <v>649.6</v>
+      </c>
+      <c r="S90" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>676.58</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>89 YONNE</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7282.9411</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7205.542</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>4.1776</v>
+      </c>
+      <c r="G91" t="n">
+        <v>73.22150000000001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>266970.34</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20969.87</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2480.8</v>
+      </c>
+      <c r="K91" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="L91" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="M91" t="n">
+        <v>24</v>
+      </c>
+      <c r="N91" t="n">
+        <v>373.21</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1090.74</v>
+      </c>
+      <c r="P91" t="n">
+        <v>175.65</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>267367.15</v>
+      </c>
+      <c r="R91" t="n">
+        <v>22102.41</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2680.45</v>
+      </c>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="n">
+        <v>2330.19</v>
+      </c>
+      <c r="V91" t="n">
+        <v>294480.2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>90 T. de BELFORT</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>91 ESSONNE</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>92 HAUTS-DE-S</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>93 SEINE-ST-D</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>94 VAL-DE-MARNE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>95 VAL-D'OISE</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
